--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1916178.77702327</v>
+        <v>2024820.938326081</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9924083.927300697</v>
+        <v>9929577.573289113</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>256.4127192656231</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>246.4196868103441</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.3296326902948</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +837,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>90.44973707528001</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.640756104083</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>35.54361781414442</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>80.23930645615799</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>189.219081603308</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81275980261576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>13.78857130219191</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>61.27375453128114</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>149.2419515106227</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517679</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784664</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>26.13627195705828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>152.074115415944</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.8886059122772</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788185784</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>73.7478529248619</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4817021252623</v>
       </c>
       <c r="C28" t="n">
-        <v>102.1656705247861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>13.79222725775367</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81.27859867330051</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.7848966149547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.289389295558</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.289389295558</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="D2" t="n">
-        <v>1107.023690688808</v>
+        <v>722.8058121488209</v>
       </c>
       <c r="E2" t="n">
-        <v>721.2354380905633</v>
+        <v>722.8058121488209</v>
       </c>
       <c r="F2" t="n">
-        <v>310.2495333009558</v>
+        <v>311.8199073592133</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>300.1555611239063</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4346,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295558</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>114.5432626034356</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>299.2648838844856</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.6070201144361</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="C4" t="n">
-        <v>763.6708371865292</v>
+        <v>664.9787363064645</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5541977741934</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E4" t="n">
-        <v>613.5541977741934</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1545.082749291386</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1545.082749291386</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1322.104268486121</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1322.104268486121</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="W4" t="n">
-        <v>1114.255484944676</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="X4" t="n">
-        <v>1114.255484944676</v>
+        <v>1067.419780280234</v>
       </c>
       <c r="Y4" t="n">
-        <v>1114.255484944676</v>
+        <v>846.6272011367042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,7 +4570,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4601,16 +4603,16 @@
         <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1955.989612394221</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1565.850280418409</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4634,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429759</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.7307788730139</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="C7" t="n">
-        <v>452.7307788730139</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>132.2965910691728</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.315734616611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.197397120448</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>901.5129089145614</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>901.5129089145614</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X7" t="n">
-        <v>673.5233580165441</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.7307788730139</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.97538618064</v>
+        <v>1203.388756704967</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>834.426239764555</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>476.1605411578045</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>476.1605411578045</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>65.17463636819696</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1273.262145272047</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.262145272047</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5105,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740078</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703178</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,64 +5260,64 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5343,34 +5345,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687974</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.452327895704</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.377101239902</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.692613034015</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.275442997055</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>982.2858920990371</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990371</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,28 +5767,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,46 +5916,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797808</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2085.82313412342</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,16 +6925,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2644.045655650153</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7196,7 +7198,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179085</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4311299055728</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5180363231797</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6280888252693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.033022579363</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1685.615852542402</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1457.626301644385</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1236.833722500854</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7736,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9556134883073781</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>240.4465442417439</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241562</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.454437538930279</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.124511791299154e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664444</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0.6960474398176189</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219359</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="C28" t="n">
-        <v>65.08115057384175</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>166.0397529241836</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>84.24553961896834</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>147.021377568698</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.04708356698259</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>868193.298007621</v>
+        <v>874135.2255086917</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830043</v>
@@ -26326,31 +26328,31 @@
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830044</v>
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805862</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707486</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707483</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707516</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707516</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
@@ -26445,13 +26447,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707319</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707387</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423902</v>
+        <v>-764870.0439423905</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.739633529</v>
+        <v>349881.7396335286</v>
       </c>
       <c r="D6" t="n">
-        <v>188083.6986352087</v>
+        <v>349881.7396335287</v>
       </c>
       <c r="E6" t="n">
-        <v>131570.2036550347</v>
+        <v>-50502.77616215579</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.6654623899</v>
+        <v>456982.6654623898</v>
       </c>
       <c r="G6" t="n">
         <v>456982.6654623898</v>
@@ -26543,22 +26545,22 @@
         <v>456982.6654623898</v>
       </c>
       <c r="J6" t="n">
-        <v>289377.487652407</v>
+        <v>289377.4876524073</v>
       </c>
       <c r="K6" t="n">
-        <v>456982.6654623903</v>
+        <v>456982.6654623898</v>
       </c>
       <c r="L6" t="n">
-        <v>408688.6954541993</v>
+        <v>456982.6654623901</v>
       </c>
       <c r="M6" t="n">
-        <v>371927.6375268782</v>
+        <v>324375.3717334631</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.6654623903</v>
+        <v>456982.6654623896</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.6654623898</v>
+        <v>456982.6654623899</v>
       </c>
       <c r="P6" t="n">
         <v>456982.6654623899</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>155.1349835073308</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>54.59886575206124</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>7.091415332636444</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>11.10783534429362</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.0930855593975</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319.1394238065386</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24.55728874774259</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31.52961439390396</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>270.4601319683918</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.7591314707621</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>87.34171848693121</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28311,7 +28313,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>6.828629209980011e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.618224487790634e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28564,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.350013746817485e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,19 +28851,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.704352264301287e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28986,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.409956270750649e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868581</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32081,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>353.6230700590495</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>640.7275049411307</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>144.237359508534</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639541</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>63.93583437922477</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34790,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>575.8712262378668</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>397.620397467641</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35030,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>341.8791195350533</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417391</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>211.4890361370311</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>498.1312604966863</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36282,7 +36284,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>6.395920534175052</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37078,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,10 +37785,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024820.938326081</v>
+        <v>2020683.78107593</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>42.68052496925149</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>246.4196868103441</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.44973707528001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>35.54361781414442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>325.8232823109074</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>80.23930645615799</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78857130219191</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>61.27375453128114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>17.42775815369493</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.8886059122772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>185.4048731212358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4817021252623</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.79222725775367</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1081.071510755571</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1081.071510755571</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D2" t="n">
-        <v>722.8058121488209</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E2" t="n">
-        <v>722.8058121488209</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>311.8199073592133</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>300.1555611239063</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1857.810682795505</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.671350819693</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034356</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844856</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159572</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.9787363064645</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064645</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1545.082749291386</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1545.082749291386</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1322.104268486121</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.104268486121</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1067.419780280234</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.419780280234</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.419780280234</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.6272011367042</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7217947496369</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C5" t="n">
-        <v>105.7592778092252</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>777.8138119782286</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4570,7 +4570,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>281.0354892056666</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>281.0354892056666</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D7" t="n">
-        <v>281.0354892056666</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E7" t="n">
-        <v>281.0354892056666</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F7" t="n">
-        <v>281.0354892056666</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G7" t="n">
-        <v>281.0354892056666</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>132.2965910691728</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056666</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056666</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.388756704967</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>834.426239764555</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>476.1605411578045</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>476.1605411578045</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>65.17463636819696</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.988596769088</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.7199774115534</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>535.7199774115534</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>473.8272960668249</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1618.842323959654</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W10" t="n">
-        <v>535.7199774115534</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X10" t="n">
-        <v>535.7199774115534</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.7199774115534</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756265</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,22 +5178,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>695.5020655703109</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,19 +5603,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.405126015258</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2644.045655650153</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3241.424143276705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3869.022106831312</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559846</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624868</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3189.272672481338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
         <v>538.7363435406111</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883073781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>84.94186588374691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.454437538930279</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6960474398176189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.35027805667497</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0397529241836</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
@@ -26328,34 +26328,34 @@
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
@@ -26453,13 +26453,13 @@
         <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707414</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423905</v>
+        <v>-764870.0439423912</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335286</v>
+        <v>349881.7396335285</v>
       </c>
       <c r="D6" t="n">
         <v>349881.7396335287</v>
       </c>
       <c r="E6" t="n">
-        <v>-50502.77616215579</v>
+        <v>-50850.15541651296</v>
       </c>
       <c r="F6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="G6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="H6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080328</v>
       </c>
       <c r="I6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.286208033</v>
       </c>
       <c r="J6" t="n">
-        <v>289377.4876524073</v>
+        <v>289030.1083980503</v>
       </c>
       <c r="K6" t="n">
-        <v>456982.6654623898</v>
+        <v>456635.2862080329</v>
       </c>
       <c r="L6" t="n">
-        <v>456982.6654623901</v>
+        <v>456635.2862080328</v>
       </c>
       <c r="M6" t="n">
-        <v>324375.3717334631</v>
+        <v>324027.9924791062</v>
       </c>
       <c r="N6" t="n">
-        <v>456982.6654623896</v>
+        <v>456635.286208033</v>
       </c>
       <c r="O6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.2862080329</v>
       </c>
       <c r="P6" t="n">
-        <v>456982.6654623899</v>
+        <v>456635.286208033</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>339.2498451030103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.59886575206124</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.10783534429362</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>319.1394238065386</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>81.05276343080402</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.55728874774259</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.7591314707621</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27906,16 +27906,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>87.34171848693121</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.7993959675057</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32812,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922477</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>451.8731981657875</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>341.8791195350533</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>498.1312604966863</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36460,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2020683.78107593</v>
+        <v>2022444.311378716</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.68052496925149</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>173.1932572884151</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208645</v>
+        <v>50.98074812542797</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>325.8232823109074</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>285.1779809628315</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>85.45564210299004</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.40055121331444</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156781</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>73.54333026016457</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>17.42775815369493</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="17">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>67.97896981790616</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182945</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.481876182945</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.481876182945</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4342,10 +4342,10 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764997</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2387.396644270443</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2056.333756926872</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1703.565101656758</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>599.4122767260735</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>1642.491563491407</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>1473.5553805635</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>1323.438741151165</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>1175.525647568772</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>1028.635700070861</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904428</v>
+        <v>1028.635700070861</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394902</v>
+        <v>1028.635700070861</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>2272.922158363194</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>2044.932607465177</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>1824.140028321647</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.042027525391</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.079510584979</v>
+        <v>1136.079510584978</v>
       </c>
       <c r="D5" t="n">
-        <v>777.8138119782286</v>
+        <v>1136.079510584978</v>
       </c>
       <c r="E5" t="n">
-        <v>392.0255593799844</v>
+        <v>750.2912579867334</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>339.3053531971258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1505.042027525389</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>420.336019830291</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>272.4229262478979</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>125.5329787499875</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1618.842323959654</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1364.157835753767</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1074.740665716806</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>846.7511148187889</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>570.4526592426267</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6940,19 +6940,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,16 +7210,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7326,7 +7326,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.454437538929881</v>
       </c>
       <c r="M3" t="n">
-        <v>84.94186588374691</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787836</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.327346787836</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462284</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>99.26785128072167</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246295</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>853603.3693246298</v>
+        <v>853603.3693246297</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246299</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>853603.3693246299</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>853603.3693246297</v>
+        <v>853603.3693246298</v>
       </c>
     </row>
     <row r="15">
@@ -26319,40 +26319,40 @@
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26429,7 +26429,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707359</v>
@@ -26438,13 +26438,13 @@
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
@@ -26453,10 +26453,10 @@
         <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-764870.0439423912</v>
+        <v>-764870.0439423907</v>
       </c>
       <c r="C6" t="n">
-        <v>349881.7396335285</v>
+        <v>349881.7396335287</v>
       </c>
       <c r="D6" t="n">
-        <v>349881.7396335287</v>
+        <v>349881.7396335286</v>
       </c>
       <c r="E6" t="n">
-        <v>-50850.15541651296</v>
+        <v>-50537.51408759177</v>
       </c>
       <c r="F6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="G6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369545</v>
       </c>
       <c r="H6" t="n">
-        <v>456635.2862080328</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="I6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369539</v>
       </c>
       <c r="J6" t="n">
-        <v>289030.1083980503</v>
+        <v>289342.7497269718</v>
       </c>
       <c r="K6" t="n">
-        <v>456635.2862080329</v>
+        <v>456947.9275369541</v>
       </c>
       <c r="L6" t="n">
-        <v>456635.2862080328</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="M6" t="n">
-        <v>324027.9924791062</v>
+        <v>324340.6338080275</v>
       </c>
       <c r="N6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="O6" t="n">
-        <v>456635.2862080329</v>
+        <v>456947.9275369542</v>
       </c>
       <c r="P6" t="n">
-        <v>456635.286208033</v>
+        <v>456947.9275369543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>339.2498451030103</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>77.8519928400469</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181412</v>
+        <v>53.81584707847261</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>81.05276343080402</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>126.3697218101225</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181414</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>154.3481447838975</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.0313165627909</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>92.76326978463962</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>268.7993959675057</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,34 +31451,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,34 +31688,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>304.13479817678</v>
       </c>
       <c r="M3" t="n">
-        <v>451.8731981657875</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
